--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -1641,46 +1641,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.8125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.52734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -1176,7 +1176,7 @@
     <t>Composition.section</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Composition is broken into sections</t>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>53</v>

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -1412,13 +1412,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ga4gh-cp.github.io/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
+    &lt;system value="http://purl.org/ga4gh/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
     &lt;code value="proband"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ga4gh-cp.github.io/pedigree-fhir-ig/StructureDefinition/PedigreeIndividual)
+    <t xml:space="preserve">Reference(http://purl.org/ga4gh/pedigree-fhir-ig/StructureDefinition/PedigreeIndividual)
 </t>
   </si>
   <si>
@@ -1430,7 +1430,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ga4gh-cp.github.io/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
+    &lt;system value="http://purl.org/ga4gh/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
     &lt;code value="reason"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1448,7 +1448,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ga4gh-cp.github.io/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
+    &lt;system value="http://purl.org/ga4gh/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
     &lt;code value="individuals"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1462,13 +1462,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ga4gh-cp.github.io/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
+    &lt;system value="http://purl.org/ga4gh/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
     &lt;code value="relationships"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ga4gh-cp.github.io/pedigree-fhir-ig/StructureDefinition/PedigreeRelationship)
+    <t xml:space="preserve">Reference(http://purl.org/ga4gh/pedigree-fhir-ig/StructureDefinition/PedigreeRelationship)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ga4gh-cp.github.io/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
+    &lt;system value="http://purl.org/ga4gh/pedigree-fhir-ig/CodeSystem/SectionType"/&gt;
     &lt;code value="other"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T03:36:07+00:00</t>
+    <t>2021-10-01T03:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T03:36:23+00:00</t>
+    <t>2021-10-11T05:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:18:50+00:00</t>
+    <t>2021-10-11T05:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T05:19:03+00:00</t>
+    <t>2022-04-22T03:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Pedigree.xlsx
+++ b/StructureDefinition-Pedigree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T03:07:53+00:00</t>
+    <t>2022-04-22T03:08:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
